--- a/public/templates/soal_ips.xlsx
+++ b/public/templates/soal_ips.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\cbt\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMPI DARMAH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A2FB0-3775-4941-9B3B-45DD8FD271F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438D8CD-3506-4306-B99F-640450C8BA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{E19B1D53-3A36-4A9B-B692-BF9EB6070660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E19B1D53-3A36-4A9B-B692-BF9EB6070660}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>no</t>
   </si>
@@ -79,6 +79,234 @@
   </si>
   <si>
     <t>3), 4), dan 5)</t>
+  </si>
+  <si>
+    <t>Pada peta berskala 1 : 50.000  panjang rel kereta api sebesar 20 cm. Panjang sebenarnya rel kereta api tersebut adalah...</t>
+  </si>
+  <si>
+    <t>10 km</t>
+  </si>
+  <si>
+    <t>20 km</t>
+  </si>
+  <si>
+    <t>30 km</t>
+  </si>
+  <si>
+    <t>40 km</t>
+  </si>
+  <si>
+    <t>Interaksi sosial dianggap penting dan tidak dapat dihindari dalam kehidupan masyarakat karena . . . .</t>
+  </si>
+  <si>
+    <t>masyarakat memiliki kepentingan berbeda-beda</t>
+  </si>
+  <si>
+    <t>interaksi sosial berpotensi mengembangkan kelompok sosial</t>
+  </si>
+  <si>
+    <t>manusia merupakan makhluk sosial yang membutuhkan orang lain</t>
+  </si>
+  <si>
+    <t>manusia memiliki potensi dalam diri yang tidak dimiliki oleh orang lain</t>
+  </si>
+  <si>
+    <t>Faktor yang berpengaruh terhadap dinamika penduduk di suatu wilayah adalah ....</t>
+  </si>
+  <si>
+    <t>Migrasi, transmigrasi, dan urbanisasi</t>
+  </si>
+  <si>
+    <t>Kelahiran, urbanisasi, dan transmigrasi</t>
+  </si>
+  <si>
+    <t>Kelahiran, kematian, dan migrasi</t>
+  </si>
+  <si>
+    <t>Kematian, migrasi, dan urbanisasi</t>
+  </si>
+  <si>
+    <t>Siti seorang ibu rumah tangga dengan dua anak yang masih kecil. Penghasilan suaminya yang pas-pasan untuk makan mendorong Siti untuk mencari penghasilan tambahan sebagai pencuci pakaian di rumah orang.</t>
+  </si>
+  <si>
+    <t>Tindakan ekonomi yang dilakukan oleh Siti didorong oleh motif ….</t>
+  </si>
+  <si>
+    <t>Membantu sesama</t>
+  </si>
+  <si>
+    <t>Mencari keuntungan</t>
+  </si>
+  <si>
+    <t>Memperoleh penghargaan</t>
+  </si>
+  <si>
+    <t>Untuk kemakmuran</t>
+  </si>
+  <si>
+    <t>Perhatikan kegiatan manusia dalam memenuhi kebutuhan di bawah ini!</t>
+  </si>
+  <si>
+    <t>1. Memberi pinjaman tanpa bunga untuk modal usaha</t>
+  </si>
+  <si>
+    <t>2. Membeli barang yang dianggap perlu dan penting</t>
+  </si>
+  <si>
+    <t>3. Menyisihkan dana untuk membantu sesama</t>
+  </si>
+  <si>
+    <t>4. Memberi barang yang berkualitas</t>
+  </si>
+  <si>
+    <t>5. Membantu orang lain yang mengalami kesulitan</t>
+  </si>
+  <si>
+    <t>Berdasar pernyataan di atas yang merupakan kegiatan manusia sebagai makhluk sosial ditunjukkan oleh nomor….</t>
+  </si>
+  <si>
+    <t>1, 2 dan 3</t>
+  </si>
+  <si>
+    <t>1, 2 dan 4</t>
+  </si>
+  <si>
+    <t>1, 3 dan 4</t>
+  </si>
+  <si>
+    <t>1, 3 dan 5</t>
+  </si>
+  <si>
+    <t>Perhatikan fungsi uang di bawah ini!</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Alat tukar</t>
+  </si>
+  <si>
+    <t>Alat satuan hitung</t>
+  </si>
+  <si>
+    <t>Alat Pembayaran</t>
+  </si>
+  <si>
+    <t>Penimbun kekayaan</t>
+  </si>
+  <si>
+    <t>Alat pembayaran</t>
+  </si>
+  <si>
+    <t>Pemindah kekayaan</t>
+  </si>
+  <si>
+    <t>Fungsi asli uang  ditunjukkan oleh nomor….</t>
+  </si>
+  <si>
+    <t>Kerajaan-kerajaan bercorak Islam di Indonesia adalah ....</t>
+  </si>
+  <si>
+    <t>Demak, Aceh, Majapahit</t>
+  </si>
+  <si>
+    <t>Samudera Pasai, Aceh, Majapahit</t>
+  </si>
+  <si>
+    <t>Demak, Aceh, Sriwijaya</t>
+  </si>
+  <si>
+    <t>Demak , Samudera Pasai,  Aceh</t>
+  </si>
+  <si>
+    <t>Perhatikan peta berikut ini !</t>
+  </si>
+  <si>
+    <t>Dari gambar diatas Kerajaan Demak terletak pada nomor :</t>
+  </si>
+  <si>
+    <t>Kawasan Asia Tenggara terletak di antara dua samudra yaitu Samudra Hindia dan Samudra Pasifik. Potensi ekonomi yang dapat dikembangkan Negara-negara di kawasan Asia Tenggara adalah  . . . .</t>
+  </si>
+  <si>
+    <t>kawasan ASEAN berada pada jalur perdagangan</t>
+  </si>
+  <si>
+    <t>kawasan ASEAN rawan terjadi bencana gempa</t>
+  </si>
+  <si>
+    <t>kawasan ASEAN mengalami empat kali pergantian musim</t>
+  </si>
+  <si>
+    <t>sebagian besar kawasan ASEAN beriklim tropis</t>
+  </si>
+  <si>
+    <t>Perhimpunan Negara-negara ASEAN dibentuk  berdasarkan  Deklarasi  Bangkok  pada  tanggal . . . .</t>
+  </si>
+  <si>
+    <t>7 Agustus 1967</t>
+  </si>
+  <si>
+    <t>8 Agustus 1967</t>
+  </si>
+  <si>
+    <t>8 Agustus 1966</t>
+  </si>
+  <si>
+    <t>6 Agustus 1967</t>
+  </si>
+  <si>
+    <t>Krisis ekonomi di suatu Negara mengakibatkan berbagai persoalan. Salah satunya adalah banyak pegawai yang diberhentikan sehingga bekerja dengan posisi yang lebih rendah ditempat kerja baru. Si A yang dulunya menjadi manajer di suatu perusahaan terkena PHK sehingga saat ini menjadi staf di perusahaan lain. Gejala sosial ini termasuk mobilitas sosial . . . .</t>
+  </si>
+  <si>
+    <t>vertikal ke bawah</t>
+  </si>
+  <si>
+    <t>vertikal ke atas</t>
+  </si>
+  <si>
+    <t>antargenerasi</t>
+  </si>
+  <si>
+    <t>intragenerasi</t>
+  </si>
+  <si>
+    <t>Berikut ini merupakan peran pelaku ekonomi dalam perekonomian :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Sebagai konsumen       </t>
+  </si>
+  <si>
+    <t>(3) Sebagai penyedia faktor produksi</t>
+  </si>
+  <si>
+    <t>(2) Pengguna faktor produksi</t>
+  </si>
+  <si>
+    <t>(4) Pelaku perdagangan internasional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Peran rumah tangga konsumen (RTK) ditunjukan pada ….</t>
+  </si>
+  <si>
+    <t>(1) dan (2)</t>
+  </si>
+  <si>
+    <t>(1) dan (3)</t>
+  </si>
+  <si>
+    <t>(2) dan (3)</t>
+  </si>
+  <si>
+    <t>(3) dan (4)</t>
   </si>
 </sst>
 </file>
@@ -109,10 +337,82 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -121,11 +421,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -142,6 +475,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA5A496-FD5F-A6E6-032E-E94BC9A90DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="381000" y="15782925"/>
+          <a:ext cx="2152650" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,15 +840,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B734485-586B-4589-8EBC-8EBACD344187}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -495,7 +900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -516,10 +921,395 @@
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/templates/soal_ips.xlsx
+++ b/public/templates/soal_ips.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMPI DARMAH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\cbt-darmah\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438D8CD-3506-4306-B99F-640450C8BA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7EE301-1D35-4F3D-8087-C72C8B800721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E19B1D53-3A36-4A9B-B692-BF9EB6070660}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{E19B1D53-3A36-4A9B-B692-BF9EB6070660}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
   <si>
     <t>no</t>
   </si>
@@ -126,12 +126,6 @@
     <t>Kematian, migrasi, dan urbanisasi</t>
   </si>
   <si>
-    <t>Siti seorang ibu rumah tangga dengan dua anak yang masih kecil. Penghasilan suaminya yang pas-pasan untuk makan mendorong Siti untuk mencari penghasilan tambahan sebagai pencuci pakaian di rumah orang.</t>
-  </si>
-  <si>
-    <t>Tindakan ekonomi yang dilakukan oleh Siti didorong oleh motif ….</t>
-  </si>
-  <si>
     <t>Membantu sesama</t>
   </si>
   <si>
@@ -144,27 +138,6 @@
     <t>Untuk kemakmuran</t>
   </si>
   <si>
-    <t>Perhatikan kegiatan manusia dalam memenuhi kebutuhan di bawah ini!</t>
-  </si>
-  <si>
-    <t>1. Memberi pinjaman tanpa bunga untuk modal usaha</t>
-  </si>
-  <si>
-    <t>2. Membeli barang yang dianggap perlu dan penting</t>
-  </si>
-  <si>
-    <t>3. Menyisihkan dana untuk membantu sesama</t>
-  </si>
-  <si>
-    <t>4. Memberi barang yang berkualitas</t>
-  </si>
-  <si>
-    <t>5. Membantu orang lain yang mengalami kesulitan</t>
-  </si>
-  <si>
-    <t>Berdasar pernyataan di atas yang merupakan kegiatan manusia sebagai makhluk sosial ditunjukkan oleh nomor….</t>
-  </si>
-  <si>
     <t>1, 2 dan 3</t>
   </si>
   <si>
@@ -177,9 +150,6 @@
     <t>1, 3 dan 5</t>
   </si>
   <si>
-    <t>Perhatikan fungsi uang di bawah ini!</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -192,27 +162,6 @@
     <t>IV</t>
   </si>
   <si>
-    <t>Alat tukar</t>
-  </si>
-  <si>
-    <t>Alat satuan hitung</t>
-  </si>
-  <si>
-    <t>Alat Pembayaran</t>
-  </si>
-  <si>
-    <t>Penimbun kekayaan</t>
-  </si>
-  <si>
-    <t>Alat pembayaran</t>
-  </si>
-  <si>
-    <t>Pemindah kekayaan</t>
-  </si>
-  <si>
-    <t>Fungsi asli uang  ditunjukkan oleh nomor….</t>
-  </si>
-  <si>
     <t>Kerajaan-kerajaan bercorak Islam di Indonesia adalah ....</t>
   </si>
   <si>
@@ -228,12 +177,6 @@
     <t>Demak , Samudera Pasai,  Aceh</t>
   </si>
   <si>
-    <t>Perhatikan peta berikut ini !</t>
-  </si>
-  <si>
-    <t>Dari gambar diatas Kerajaan Demak terletak pada nomor :</t>
-  </si>
-  <si>
     <t>Kawasan Asia Tenggara terletak di antara dua samudra yaitu Samudra Hindia dan Samudra Pasifik. Potensi ekonomi yang dapat dikembangkan Negara-negara di kawasan Asia Tenggara adalah  . . . .</t>
   </si>
   <si>
@@ -279,24 +222,6 @@
     <t>intragenerasi</t>
   </si>
   <si>
-    <t>Berikut ini merupakan peran pelaku ekonomi dalam perekonomian :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) Sebagai konsumen       </t>
-  </si>
-  <si>
-    <t>(3) Sebagai penyedia faktor produksi</t>
-  </si>
-  <si>
-    <t>(2) Pengguna faktor produksi</t>
-  </si>
-  <si>
-    <t>(4) Pelaku perdagangan internasional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Peran rumah tangga konsumen (RTK) ditunjukan pada ….</t>
-  </si>
-  <si>
     <t>(1) dan (2)</t>
   </si>
   <si>
@@ -307,13 +232,562 @@
   </si>
   <si>
     <t>(3) dan (4)</t>
+  </si>
+  <si>
+    <t>Regulator</t>
+  </si>
+  <si>
+    <t>Produsen</t>
+  </si>
+  <si>
+    <t>Konsumen</t>
+  </si>
+  <si>
+    <t>Distribusi</t>
+  </si>
+  <si>
+    <t>Sistem Tanam Paksa dijalankan oleh Pemerintah Kolonial Belanda sejak tahun 1830. Tujuan Pemerintah Kolonial Belanda menjalankan sistem tanam paksa adalah ....</t>
+  </si>
+  <si>
+    <t>Memanfaatkan wilayah kosong yang ada di Indonesia</t>
+  </si>
+  <si>
+    <t>Merebut dominasi ekonomi dari tangan Inggris dan Perancis</t>
+  </si>
+  <si>
+    <t>Mengenalkan sistem pertanian modern kepada rakyat Indonesia</t>
+  </si>
+  <si>
+    <t>Mendapatkan komoditas ekspor yang laku di pasaran dunia</t>
+  </si>
+  <si>
+    <t>Jepang masuk di Indonesia dengan janji akan membebaskan Asia dari belenggu penjajahan bangsa Barat. Saat Jepang datang di Indonesia perekonomian Indonesia sedang mengalami kelumpuhan. Untuk mengambil hati rakyat Indonesia dan para pemimpin pergerakan Indonesia, berbagai kebijakan diterapkan oleh Jepang antara lain di bidang ekonomi yaitu ....</t>
+  </si>
+  <si>
+    <t>Kegiatan ekonomi diarahkan untuk kepentingan Jepang</t>
+  </si>
+  <si>
+    <t>Eksploitasi sumberdaya alam untuk kepentingan Jepang</t>
+  </si>
+  <si>
+    <t>Didirikan kumyai atau koperasi untuk kepentingan bersama</t>
+  </si>
+  <si>
+    <t>Tanah pertanian rakyat yang dikuasai Belanda dikembalikan</t>
+  </si>
+  <si>
+    <t>2, 3 dan 4</t>
+  </si>
+  <si>
+    <t>3, 4 dan 5</t>
+  </si>
+  <si>
+    <t>Secara astronomis, Benua Eropa terletak pada 9°BB-60°BT dan 35°LU-80°LU. Berdasarkan letak tersebut, maka Benua Eropa memiliki iklim….</t>
+  </si>
+  <si>
+    <t>sedang dan dingin</t>
+  </si>
+  <si>
+    <t>tropis dan subtropis</t>
+  </si>
+  <si>
+    <t>subtropis dan sedang</t>
+  </si>
+  <si>
+    <t>subtropis dan dingin</t>
+  </si>
+  <si>
+    <t>(1), (2), dan (3)</t>
+  </si>
+  <si>
+    <t>(1), (3), dan (5)</t>
+  </si>
+  <si>
+    <t>(2), (3), dan (4)</t>
+  </si>
+  <si>
+    <t>(3), (4), dan (5)</t>
+  </si>
+  <si>
+    <t>walabi dan anoa</t>
+  </si>
+  <si>
+    <t>armadillo dan trenggiling</t>
+  </si>
+  <si>
+    <t>kanguru dan alpaka</t>
+  </si>
+  <si>
+    <t>walabi dan kanguru</t>
+  </si>
+  <si>
+    <t>Thailand, Indonesia, dan Vietnam merupakan negara produsen karet terbesar di dunia. Getah karet bermanfaat bagi kehidupan manusia, yaitu….</t>
+  </si>
+  <si>
+    <t>sebagai bahan baku mebel</t>
+  </si>
+  <si>
+    <t>sebagai bahan baku makanan ringan</t>
+  </si>
+  <si>
+    <t>sebagai bahan baku pembuatan ban</t>
+  </si>
+  <si>
+    <t>berfungsi menyerap karbondioksida di udara</t>
+  </si>
+  <si>
+    <t>Tiongkok merupakan negara dengan jumlah penduduk terbanyak di dunia. Pada tahun 2017, jumlah penduduk Tiongkok mencapai 1,386 miliar jiwa. Langkah yang dilakukan pemerintah Tiongkok untuk menekan angka pertumbuhan penduduk adalah….</t>
+  </si>
+  <si>
+    <t>memberikan tunjangan bagi keluarga yang memiliki lebih dari tiga anak</t>
+  </si>
+  <si>
+    <t>membatasi jumlah anak yang boleh dimiliki</t>
+  </si>
+  <si>
+    <t>melarang penduduk untuk menikah</t>
+  </si>
+  <si>
+    <t>meningkatkan kualitas untuk fasilitas kesehatan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dahulu, surat dikirim oleh petugas pos, saat ini sudah berkembang telepon, telepon seluler, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e-mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, dan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>video call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Pola hubungan sosial masyarakat secara perlahan berubah seiring perkembangan teknologi dan komunikasi. Berdasarkan </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>laju kecepatannya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ilustrasi tersebut termasuk dalam bentuk perubahan ….</t>
+    </r>
+  </si>
+  <si>
+    <t>revolusi</t>
+  </si>
+  <si>
+    <t>evolusi</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>regress</t>
+  </si>
+  <si>
+    <t>Globalisasi tentunya akan memberikan dampak di setiap bidang kehidupan. Di bawah ini yang merupakan contoh upaya dalam menghadapi globalisasi di bidang teknologi dan pendidikan adalah ….</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pemakaian </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smartphone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> untuk menggali informasi dalam proses pembelajaran</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">menggunakan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smartphone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> untuk mengakses resep masakan</t>
+    </r>
+  </si>
+  <si>
+    <t>mengakses internet hingga larut malam dan mengantuk di ruang kelas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pemanfaatan sosial media sebagai lahan bisnis </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>online</t>
+    </r>
+  </si>
+  <si>
+    <t>Indonesia selalu membuka peluang kerjasama dengan negara lain dan organisasi internasional, misalnya dengan UNESCO yang bergerak di bidang ilmu pengetahuan, budaya, dan komunikasi. Kerjasama ini juga didukung oleh adanya kemajuan teknologi informasi, komunikasi dan transportasi di era globalisasi. Kerjasama ini menunjukkan adanya gejala globalisasi di bidang ….</t>
+  </si>
+  <si>
+    <t>politik</t>
+  </si>
+  <si>
+    <t>hukum</t>
+  </si>
+  <si>
+    <t>ekonomi</t>
+  </si>
+  <si>
+    <t>transportasi</t>
+  </si>
+  <si>
+    <t>Saat ini, tak jarang dijumpai remaja Indonesia mengikuti cara berpakaian ataupun perilaku selebriti dari berbagai belahan dunia. Hal ini dapat berdampak pada perilaku remaja seperti tidak mementingkan budaya lokal. Kasus tersebut menunjukkan bahwa dampak negatif globalisasi dalam kehidupan sosial budaya adalah ….</t>
+  </si>
+  <si>
+    <t>masuknya banyak tenaga kerja asing yang mendominasi tenaga kerja lokal</t>
+  </si>
+  <si>
+    <t>menumbuhkan sikap toleransi antarmasyarakat</t>
+  </si>
+  <si>
+    <t>mudah terpengaruh budaya luar hingga cenderung melupakan budaya lokal</t>
+  </si>
+  <si>
+    <t>memahami konsep multikulturalisme</t>
+  </si>
+  <si>
+    <t>Kenaikan harga BBM mempengaruhi kenaikan berbagai tarif dan harga kebutuhan pokok masyarakat. Apabila realitas tersebut dikaitkan dengan perubahan sosial, dapat ditarik kesimpulan bahwa....</t>
+  </si>
+  <si>
+    <t>masyarakat mengalami perubahan kecil akibat kenaikan harga BBM</t>
+  </si>
+  <si>
+    <t>kenaikan harga BBM menimbulkan perubahan besar</t>
+  </si>
+  <si>
+    <t>kenaikan harga kebutuhan pokok memicu perubahan evolusi</t>
+  </si>
+  <si>
+    <t>kenaikan BBM membawa perubahan progres bagi masyarakat</t>
+  </si>
+  <si>
+    <t>(1), (3), dan (4)</t>
+  </si>
+  <si>
+    <t>(2), (3), dan (5)</t>
+  </si>
+  <si>
+    <t>Kondisi kekurangan tenaga ahli di suatu negara sehingga tidak mampu memproduksi barang berkualitas tinggi dan murah merupakan salah satu pendorong terjadinya perdagangan internasional yaitu disebabkan ....</t>
+  </si>
+  <si>
+    <t>perbedaan upah dan biaya produksi</t>
+  </si>
+  <si>
+    <t>perbedaan kualitas sumber daya manusia</t>
+  </si>
+  <si>
+    <t>perbedaan budaya suatu bangsa</t>
+  </si>
+  <si>
+    <t>perbedaan sumber daya alam</t>
+  </si>
+  <si>
+    <t>Kebijakan pengekspor menjual barang di luar negeri dengan harga yang lebih murah daripada di dalam negeri merupakan salah satu hambatan dalam perdagangan internasional yaitu ....</t>
+  </si>
+  <si>
+    <t>proteksi</t>
+  </si>
+  <si>
+    <t>kuota</t>
+  </si>
+  <si>
+    <t>tarif</t>
+  </si>
+  <si>
+    <t>dumping</t>
+  </si>
+  <si>
+    <t>Peluang produk masyarakat Indonesia menembus pasar internasional sangat besar karena didukung oleh ....</t>
+  </si>
+  <si>
+    <t>kekayaan sumber daya alam, sumber daya manusia, dan budaya yang melimpah</t>
+  </si>
+  <si>
+    <t>letak wilayah yang strategis sebagai jalur utama perdagangan internasional</t>
+  </si>
+  <si>
+    <t>adanya kemajuan di bidang ilmu pengetahuan dan teknologi</t>
+  </si>
+  <si>
+    <t>kemampuan melakukan efisiensi produksi sehingga memiliki daya saing tinggi</t>
+  </si>
+  <si>
+    <t>Pada akhir tahun 1944, Jepang mulai terdesak dalam Perang Asia Pasifik kemudian memberikan janji kemerdekaan kepada Indonesia. Hal ini bertujuan ....</t>
+  </si>
+  <si>
+    <t>meyakinkan sekutu bahwa Jepang telah menyerah</t>
+  </si>
+  <si>
+    <t>sebagai balas jasa atas perlakuan Jepang terhadap bangsa Indonesia</t>
+  </si>
+  <si>
+    <t>sebagai pembuktian bahwa Jepang adalah pemimpin, pelindung, dan cahaya Asia</t>
+  </si>
+  <si>
+    <t>mendapatkan dukungan rakyat Indonesia dalam menghadapi sekutu</t>
+  </si>
+  <si>
+    <t>Masa ketika pemerintah menggunakan UUDS 1950 sebagai undang-undang negara disebut ....</t>
+  </si>
+  <si>
+    <t>Demokrasi Parlementer</t>
+  </si>
+  <si>
+    <t>Demokrasi Terpimpin</t>
+  </si>
+  <si>
+    <t>Demokrasi Pancasila</t>
+  </si>
+  <si>
+    <t>Demokrasi liberal</t>
+  </si>
+  <si>
+    <t>Berdasarkan isi Dekrit Presiden 5 Juli 1959 terdapat hubungan dengan pelaksanaan model pemerintahan Demokrasi Terpimpin. Hubungan yang dimaksud adalah ....</t>
+  </si>
+  <si>
+    <t>segala permasalahan kepemerintahan diputuskan oleh presiden sebagai kepala negara</t>
+  </si>
+  <si>
+    <t>presiden sebagai pemimpin negara tidak memiliki kewenangan untuk memutuskan masalah pemerintahan</t>
+  </si>
+  <si>
+    <t>presiden hanya sebagai lambang kesatuan dan pelaksanaan kepemerintahan dipimpin perdana menteri</t>
+  </si>
+  <si>
+    <t>penerapan Undang-Undang Sementara (UUDS) tahun 1950 masih tetap berlaku</t>
+  </si>
+  <si>
+    <t>1), 3), dan 5)</t>
+  </si>
+  <si>
+    <t>2), 4), dan 6)</t>
+  </si>
+  <si>
+    <t>4), 5), dan 6)</t>
+  </si>
+  <si>
+    <t>Latar belakang lahirnya reformasi ditandai dengan krisis ekonomi dan politik pada akhir pemerintahan Orde Baru yang terjadi karena ....</t>
+  </si>
+  <si>
+    <t>pertumbuhan ekonomi tidak menunjukkan peningkatan, fundamental ekonomi rapuh</t>
+  </si>
+  <si>
+    <t>terbentuknya mentalitas dan budaya korupsi, dan reaksi terhadap kekuasaan otoriter</t>
+  </si>
+  <si>
+    <t>pembangunan politik tidak berlandaskan GBHN, parpol dikendalikan pemerintah</t>
+  </si>
+  <si>
+    <t>faktor ketidakpercayaan para donatur dan kreditor terhadap pemerintah</t>
+  </si>
+  <si>
+    <t>Perhatikan kegiatan manusia dalam memenuhi kebutuhan di bawah ini!
+1. Memberi pinjaman tanpa bunga untuk modal usaha
+2. Membeli barang yang dianggap perlu dan penting
+3. Menyisihkan dana untuk membantu sesama
+4. Memberi barang yang berkualitas
+5. Membantu orang lain yang mengalami kesulitan
+Berdasar pernyataan di atas yang merupakan kegiatan manusia sebagai makhluk sosial ditunjukkan oleh nomor….</t>
+  </si>
+  <si>
+    <t>Siti seorang ibu rumah tangga dengan dua anak yang masih kecil. Penghasilan suaminya yang pas-pasan untuk makan mendorong Siti untuk mencari penghasilan tambahan sebagai pencuci pakaian di rumah orang. 
+Tindakan ekonomi yang dilakukan oleh Siti didorong oleh motif ….</t>
+  </si>
+  <si>
+    <t>Perhatikan fungsi uang di bawah ini!
+#gambar_2_ips#
+Fungsi asli uang  ditunjukkan oleh nomor….</t>
+  </si>
+  <si>
+    <t>Perhatikan peta berikut ini !
+#gambar_3_ips#
+Dari gambar diatas Kerajaan Demak terletak pada nomor :</t>
+  </si>
+  <si>
+    <t>Berikut ini merupakan peran pelaku ekonomi dalam perekonomian :
+(1) Sebagai konsumen       
+(2) Pengguna faktor produksi
+Peran rumah tangga konsumen (RTK) ditunjukan pada ….</t>
+  </si>
+  <si>
+    <t>Perhatikan bagan hubungan pelaku ekonomi dua sektor berikut !
+#gambar_4_ips#
+Berdasarkan bagan di samping yang termasuk arus sumber pendapatan rumah tangga produsen  adalah ….</t>
+  </si>
+  <si>
+    <t>Perhatikan gambar berikut !
+#gambar_5_ips#
+Kegiatan yang dilakukan Rumah Tangga Pemerintah Melalui Badan Usaha Milik Negara (BUMN) Pertamina, dalam hal ini peran pemerintah sebagai ….</t>
+  </si>
+  <si>
+    <t>Perhatikan konsep Ekonomi kelautan (marine economy) dan Ekonomi maritime (maritime economy) pada kegiatan ekonomi berikut !
+(1) Kegiatan di pesisir, lautan serta darat yang menggunakan sumber daya alam
+(2) Jasa-jasa lingkungan kelautan untuk menghasilkan barang dan jasa
+(3) Transportasi laut, Industri galangan kapal dan perawatannya
+(4) Pembangunan dan pengoperasian  pelabuhan beserta industri dan jasa terkait
+Kegiatan yang termasuk Ekonomi maritim (maritime economy) ditunjukan pada ….</t>
+  </si>
+  <si>
+    <t>Perhatikan nama-nama tokoh berikut ini !
+1. Soepomo
+2. Sayuti Melik
+3. Ir. Soekarno
+4. Drs. Moh. Hatta
+5. Ahmad Soebarjo
+Tokoh-Tokoh Bangsa Indonesia yang merumuskan naskah proklamasi ditunjukkan oleh angka....</t>
+  </si>
+  <si>
+    <t>Perhatikan negara-negara berikut ini:
+(1) Sri Lanka
+(2) Afghanistan 
+(3) India
+Negara-negara yang berada di kawasan Asia Selatan ditunjukkan oleh nomor….</t>
+  </si>
+  <si>
+    <t>Perhatikan gambar berikut ini:
+#gambar_6_ips#
+Jenis hewan yang dapat ditemukan pada wilayah yang ditunjukkan oleh huruf X adalah….</t>
+  </si>
+  <si>
+    <t>Perhatikan ciri-ciri perdagangan berikut:
+(1) Pembeli dan penjual tidak bertemu langsung
+(2) Dikenakan bea masuk
+(3) Mata uang berbeda
+(4) Pembeli dan penjual cenderung bertemu
+(5) Biaya angkut lebih murah
+Yang termasuk ciri-ciri perdagangan internasional adalah ....</t>
+  </si>
+  <si>
+    <t>Grafik Perkembangan Ekspor-Impor Indonesia.
+#gambar_7_ips#
+Perkembangan ekspor Indonesia mengalami kenaikan tertinggi dilihat dari grafik terjadi pada tahun …</t>
+  </si>
+  <si>
+    <t>Perhatikan ciri-ciri kehidupan bangsa Indonesia berikut ini!
+1) Prioritas pembangunan pada sektor maritim dan infrastruktur
+2) Tercapainya masyarakat madani terutama peran ormas dan pers
+3) Kehidupan politik berbasis demokrasi dan penegakan hukum
+4) Penerapan konsep dwi fungsi ABRI secara konsisten
+5) Prioritas pada pembangunan pertanian sehingga berhasil melakukan swasembada pangan
+6) Keberhasilan menyelenggarakan pemilu sebanyak enam kali
+Yang mencerminkan ciri kehidupan masyarakat Indonesia pada masa Orde Baru adalah ....</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,10 +797,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,82 +834,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -421,44 +846,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,72 +878,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA5A496-FD5F-A6E6-032E-E94BC9A90DA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="381000" y="15782925"/>
-          <a:ext cx="2152650" cy="1095375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -840,476 +1177,959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B734485-586B-4589-8EBC-8EBACD344187}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="375" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22">
+    </row>
+    <row r="24" spans="1:7" ht="312" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="1" t="s">
+    <row r="35" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35">
+        <v>2010</v>
+      </c>
+      <c r="D35">
+        <v>2011</v>
+      </c>
+      <c r="E35">
+        <v>2012</v>
+      </c>
+      <c r="F35">
+        <v>2013</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>14</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>88</v>
+      <c r="D40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/templates/soal_ips.xlsx
+++ b/public/templates/soal_ips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\cbt-darmah\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7EE301-1D35-4F3D-8087-C72C8B800721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917E17FD-C6A7-47F3-8CF2-6EB2B79038FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{E19B1D53-3A36-4A9B-B692-BF9EB6070660}"/>
   </bookViews>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>kunci</t>
-  </si>
-  <si>
-    <t>Perhatikan gambar berikut!&lt;br&gt;#gambar_1_ips#&lt;br&gt;Dampak kondisi infrastruktur terhadap interaksi antarruang seperti tampak pada gambar adalah…</t>
-  </si>
-  <si>
-    <t>Perhatikan Negara-negara berikut !
-1) Malaysia 	3) Filipina
-2) Singapura	4) Australia 
-Wilayah utara Indonesia berbatasan dengan Negara yang ditunjukkan oleh angka…</t>
   </si>
   <si>
     <t>1), 2), dan 3)</t>
@@ -782,6 +773,19 @@
 6) Keberhasilan menyelenggarakan pemilu sebanyak enam kali
 Yang mencerminkan ciri kehidupan masyarakat Indonesia pada masa Orde Baru adalah ....</t>
   </si>
+  <si>
+    <t>Perhatikan Negara-negara berikut !
+1) Malaysia
+2) Singapura
+3) Filipina
+4) Australia 
+Wilayah utara Indonesia berbatasan dengan Negara yang ditunjukkan oleh angka…</t>
+  </si>
+  <si>
+    <t>Perhatikan gambar berikut!
+#gambar_1_ips#
+Dampak kondisi infrastruktur terhadap interaksi antarruang seperti tampak pada gambar adalah…</t>
+  </si>
 </sst>
 </file>
 
@@ -846,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -856,13 +860,16 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B734485-586B-4589-8EBC-8EBACD344187}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,370 +1196,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5">
-        <v>4</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1561,19 +1568,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>4</v>
@@ -1584,19 +1591,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>6</v>
@@ -1607,19 +1614,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>6</v>
@@ -1630,19 +1637,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>6</v>
@@ -1653,19 +1660,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>6</v>
@@ -1676,19 +1683,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -1699,19 +1706,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>4</v>
@@ -1722,19 +1729,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>6</v>
@@ -1745,19 +1752,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>5</v>
@@ -1768,19 +1775,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>4</v>
@@ -1791,19 +1798,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>4</v>
@@ -1814,19 +1821,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>2</v>
@@ -1837,19 +1844,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>2</v>
@@ -1860,19 +1867,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>5</v>
@@ -1883,19 +1890,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>4</v>
@@ -1906,19 +1913,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>2</v>
@@ -1929,19 +1936,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>4</v>
@@ -1952,19 +1959,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>6</v>
@@ -1975,7 +1982,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C35">
         <v>2010</v>
@@ -1998,19 +2005,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>2</v>
@@ -2021,19 +2028,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>6</v>
@@ -2044,19 +2051,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>2</v>
@@ -2067,19 +2074,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>2</v>
@@ -2090,19 +2097,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>6</v>
@@ -2113,19 +2120,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
